--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/condition 3/n2-back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68593637-9B6C-504D-9A8E-FB077A955EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B338B2-B7A9-CE45-873A-B830E215713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="500" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -924,18 +924,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -946,18 +949,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -968,29 +974,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1001,29 +1007,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1034,18 +1042,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1111,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
